--- a/class-registers/test_sheet.xlsx
+++ b/class-registers/test_sheet.xlsx
@@ -8,46 +8,47 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/01445766_wf_uct_ac_za/Documents/Venues/QR Code Register/QR Code Generator/class-registers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{A84901B1-1CA4-4E19-8B9C-E98734B78BE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{253EAD26-E9F5-4364-A3B9-D5EB834D8528}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="8_{A84901B1-1CA4-4E19-8B9C-E98734B78BE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4F4E7038-36D2-4343-9A46-2B32F6318A06}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendees' Schedules" sheetId="1" r:id="rId1"/>
-    <sheet name="Events Overview" sheetId="2" r:id="rId2"/>
-    <sheet name="EEE2045F Prac 1 (1)" sheetId="3" r:id="rId3"/>
-    <sheet name="EEE2045F Prac 2 (2)" sheetId="4" r:id="rId4"/>
-    <sheet name="EEE2045F Tutorial Group 1 (3)" sheetId="5" r:id="rId5"/>
-    <sheet name="EEE2045F Prac 1 (4)" sheetId="6" r:id="rId6"/>
-    <sheet name="EEE2045F Prac 2 (5)" sheetId="7" r:id="rId7"/>
-    <sheet name="EEE2045F Prac 1 (6)" sheetId="8" r:id="rId8"/>
-    <sheet name="EEE2045F Prac 2 (7)" sheetId="9" r:id="rId9"/>
-    <sheet name="EEE2045F Prac 1 (8)" sheetId="10" r:id="rId10"/>
-    <sheet name="EEE2045F Prac 2 (9)" sheetId="11" r:id="rId11"/>
-    <sheet name="EEE2045F Prac 1 (10)" sheetId="12" r:id="rId12"/>
-    <sheet name="EEE2045F Prac 2 (11)" sheetId="13" r:id="rId13"/>
-    <sheet name="EEE2045F Tutorial Group 1 (12)" sheetId="14" r:id="rId14"/>
-    <sheet name="EEE2045F Tutorial Group 1 (13)" sheetId="15" r:id="rId15"/>
-    <sheet name="EEE2045F Tutorial Group 1 (14)" sheetId="16" r:id="rId16"/>
-    <sheet name="EEE2045F Tutorial Group 1 (15)" sheetId="17" r:id="rId17"/>
-    <sheet name="EEE2045F Tutorial Group 1 (16)" sheetId="18" r:id="rId18"/>
-    <sheet name="EEE2045F Tutorial Group 1 (17)" sheetId="19" r:id="rId19"/>
-    <sheet name="EEE2045F Tutorial Group 1 (18)" sheetId="20" r:id="rId20"/>
-    <sheet name="EEE2045F Tutorial Group 1 (19)" sheetId="21" r:id="rId21"/>
-    <sheet name="EEE2045F Tutorial Group 1 (20)" sheetId="22" r:id="rId22"/>
-    <sheet name="EEE2045F Tutorial Group 1 (21)" sheetId="23" r:id="rId23"/>
-    <sheet name="EEE2045F Tutorial Group 1 (22)" sheetId="24" r:id="rId24"/>
-    <sheet name="EEE2045F Tutorial Group 1 (23)" sheetId="25" r:id="rId25"/>
+    <sheet name="Manual Register" sheetId="26" r:id="rId2"/>
+    <sheet name="Events Overview" sheetId="2" r:id="rId3"/>
+    <sheet name="EEE2045F Prac 1 (1)" sheetId="3" r:id="rId4"/>
+    <sheet name="EEE2045F Prac 2 (2)" sheetId="4" r:id="rId5"/>
+    <sheet name="EEE2045F Tutorial Group 1 (3)" sheetId="5" r:id="rId6"/>
+    <sheet name="EEE2045F Prac 1 (4)" sheetId="6" r:id="rId7"/>
+    <sheet name="EEE2045F Prac 2 (5)" sheetId="7" r:id="rId8"/>
+    <sheet name="EEE2045F Prac 1 (6)" sheetId="8" r:id="rId9"/>
+    <sheet name="EEE2045F Prac 2 (7)" sheetId="9" r:id="rId10"/>
+    <sheet name="EEE2045F Prac 1 (8)" sheetId="10" r:id="rId11"/>
+    <sheet name="EEE2045F Prac 2 (9)" sheetId="11" r:id="rId12"/>
+    <sheet name="EEE2045F Prac 1 (10)" sheetId="12" r:id="rId13"/>
+    <sheet name="EEE2045F Prac 2 (11)" sheetId="13" r:id="rId14"/>
+    <sheet name="EEE2045F Tutorial Group 1 (12)" sheetId="14" r:id="rId15"/>
+    <sheet name="EEE2045F Tutorial Group 1 (13)" sheetId="15" r:id="rId16"/>
+    <sheet name="EEE2045F Tutorial Group 1 (14)" sheetId="16" r:id="rId17"/>
+    <sheet name="EEE2045F Tutorial Group 1 (15)" sheetId="17" r:id="rId18"/>
+    <sheet name="EEE2045F Tutorial Group 1 (16)" sheetId="18" r:id="rId19"/>
+    <sheet name="EEE2045F Tutorial Group 1 (17)" sheetId="19" r:id="rId20"/>
+    <sheet name="EEE2045F Tutorial Group 1 (18)" sheetId="20" r:id="rId21"/>
+    <sheet name="EEE2045F Tutorial Group 1 (19)" sheetId="21" r:id="rId22"/>
+    <sheet name="EEE2045F Tutorial Group 1 (20)" sheetId="22" r:id="rId23"/>
+    <sheet name="EEE2045F Tutorial Group 1 (21)" sheetId="23" r:id="rId24"/>
+    <sheet name="EEE2045F Tutorial Group 1 (22)" sheetId="24" r:id="rId25"/>
+    <sheet name="EEE2045F Tutorial Group 1 (23)" sheetId="25" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Attendees'' Schedules'!$F$1:$F$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Attendees'' Schedules'!$A$1:$K$23</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="152">
   <si>
     <t>Event Name</t>
   </si>
@@ -122,9 +123,6 @@
   </si>
   <si>
     <t>EEE2045F Prac 1</t>
-  </si>
-  <si>
-    <t>23-Mar-2021 11:00</t>
   </si>
   <si>
     <t>White Lab</t>
@@ -488,13 +486,37 @@
   </si>
   <si>
     <t>EEE2045F Tutorial Group 2</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Event Name:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Start time:</t>
+  </si>
+  <si>
+    <t>End time:</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Campus ID</t>
+  </si>
+  <si>
+    <t>Location:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -562,8 +584,14 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +612,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,7 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,9 +686,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,6 +709,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -992,10 +1032,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1050,7 @@
     <col min="10" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1053,8 +1093,11 @@
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="O1" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1070,8 +1113,8 @@
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
+      <c r="F2" s="14">
+        <v>44277.375</v>
       </c>
       <c r="G2" s="3">
         <v>225</v>
@@ -1097,25 +1140,26 @@
       <c r="N2" s="3">
         <v>225</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
+      <c r="F3" s="14">
+        <v>44277.375</v>
       </c>
       <c r="G3" s="3">
         <v>225</v>
@@ -1142,24 +1186,24 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
+      <c r="F4" s="14">
+        <v>44277.375</v>
       </c>
       <c r="G4" s="3">
         <v>225</v>
@@ -1186,24 +1230,24 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
+      <c r="F5" s="14">
+        <v>44277.375</v>
       </c>
       <c r="G5" s="3">
         <v>225</v>
@@ -1230,11 +1274,11 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1274,18 +1318,18 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>18</v>
@@ -1318,18 +1362,18 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
@@ -1362,7 +1406,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1378,8 +1422,8 @@
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>25</v>
+      <c r="F9" s="14">
+        <v>44278.458333333336</v>
       </c>
       <c r="G9" s="3">
         <v>105</v>
@@ -1394,36 +1438,36 @@
         <v>21</v>
       </c>
       <c r="K9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="N9" s="3">
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>25</v>
+      <c r="F10" s="14">
+        <v>44278.458333333336</v>
       </c>
       <c r="G10" s="3">
         <v>105</v>
@@ -1438,36 +1482,36 @@
         <v>21</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="M10" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N10" s="3">
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
+      <c r="F11" s="14">
+        <v>44278.458333333336</v>
       </c>
       <c r="G11" s="3">
         <v>105</v>
@@ -1482,36 +1526,36 @@
         <v>21</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="M11" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N11" s="3">
         <v>466</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
+      <c r="F12" s="14">
+        <v>44278.458333333336</v>
       </c>
       <c r="G12" s="3">
         <v>105</v>
@@ -1526,19 +1570,19 @@
         <v>21</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="M12" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N12" s="3">
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1570,30 +1614,30 @@
         <v>21</v>
       </c>
       <c r="K13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="N13" s="3">
         <v>465</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>138</v>
+      <c r="B14" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -1614,30 +1658,30 @@
         <v>21</v>
       </c>
       <c r="K14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="N14" s="3">
         <v>466</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>139</v>
+      <c r="B15" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
@@ -1658,19 +1702,19 @@
         <v>21</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="N15" s="3">
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1686,8 +1730,8 @@
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>30</v>
+      <c r="F16" s="14">
+        <v>44284.375</v>
       </c>
       <c r="G16" s="3">
         <v>225</v>
@@ -1708,7 +1752,7 @@
         <v>23</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N16" s="3">
         <v>225</v>
@@ -1719,19 +1763,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>30</v>
+      <c r="F17" s="14">
+        <v>44284.375</v>
       </c>
       <c r="G17" s="3">
         <v>225</v>
@@ -1752,7 +1796,7 @@
         <v>23</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N17" s="3">
         <v>225</v>
@@ -1763,19 +1807,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>30</v>
+      <c r="F18" s="14">
+        <v>44284.375</v>
       </c>
       <c r="G18" s="3">
         <v>225</v>
@@ -1796,7 +1840,7 @@
         <v>23</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N18" s="3">
         <v>225</v>
@@ -1807,19 +1851,19 @@
         <v>14</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>30</v>
+      <c r="F19" s="14">
+        <v>44284.375</v>
       </c>
       <c r="G19" s="3">
         <v>225</v>
@@ -1840,7 +1884,7 @@
         <v>23</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19" s="3">
         <v>225</v>
@@ -1848,7 +1892,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>15</v>
@@ -1878,10 +1922,10 @@
         <v>21</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="M20" s="14">
         <v>44347.333333333336</v>
@@ -1892,16 +1936,16 @@
     </row>
     <row r="21" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>18</v>
@@ -1922,10 +1966,10 @@
         <v>21</v>
       </c>
       <c r="K21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="M21" s="14">
         <v>44347.333333333336</v>
@@ -1936,16 +1980,16 @@
     </row>
     <row r="22" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
@@ -1966,10 +2010,10 @@
         <v>21</v>
       </c>
       <c r="K22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="M22" s="14">
         <v>44347.333333333336</v>
@@ -1980,16 +2024,16 @@
     </row>
     <row r="23" spans="1:14" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
@@ -2010,10 +2054,10 @@
         <v>21</v>
       </c>
       <c r="K23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="M23" s="14">
         <v>44347.333333333336</v>
@@ -2023,7 +2067,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F23" xr:uid="{506C7171-EF5B-4D97-BD31-B5960F9A0EEF}"/>
+  <autoFilter ref="A1:K23" xr:uid="{F97A15F4-8264-429C-90FF-25BDC9C266A6}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{46B8BFDB-B225-48BA-9279-90E257CC396D}"/>
@@ -2050,6 +2094,240 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="5">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="5">
+        <v>23</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="5">
+        <v>23</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2071,29 +2349,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -2101,90 +2379,90 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>23</v>
       </c>
@@ -2200,10 +2478,10 @@
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="5">
         <v>23</v>
       </c>
@@ -2219,10 +2497,10 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="19"/>
+      <c r="C15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="5">
         <v>23</v>
       </c>
@@ -2246,14 +2524,14 @@
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
@@ -2262,7 +2540,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2283,7 +2561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2305,29 +2583,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -2335,90 +2613,90 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>23</v>
       </c>
@@ -2434,10 +2712,10 @@
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="5">
         <v>23</v>
       </c>
@@ -2453,10 +2731,10 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="19"/>
+      <c r="C15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="5">
         <v>23</v>
       </c>
@@ -2480,14 +2758,14 @@
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
@@ -2496,7 +2774,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2517,7 +2795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2539,29 +2817,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -2569,90 +2847,90 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>23</v>
       </c>
@@ -2668,10 +2946,10 @@
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="5">
         <v>23</v>
       </c>
@@ -2687,10 +2965,10 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="19"/>
+      <c r="C15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="5">
         <v>23</v>
       </c>
@@ -2714,14 +2992,14 @@
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
@@ -2730,7 +3008,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2751,7 +3029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2773,29 +3051,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -2803,90 +3081,90 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>23</v>
       </c>
@@ -2902,10 +3180,10 @@
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="5">
         <v>23</v>
       </c>
@@ -2921,10 +3199,10 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="19"/>
+      <c r="C15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="5">
         <v>23</v>
       </c>
@@ -2948,14 +3226,14 @@
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
@@ -2964,7 +3242,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2985,7 +3263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3007,29 +3285,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -3037,98 +3315,98 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>30</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>20</v>
@@ -3144,14 +3422,14 @@
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
@@ -3160,7 +3438,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3179,7 +3457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3201,29 +3479,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -3231,90 +3509,90 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>30</v>
       </c>
@@ -3338,14 +3616,14 @@
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
@@ -3354,7 +3632,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3373,7 +3651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3395,29 +3673,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -3425,90 +3703,90 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>30</v>
       </c>
@@ -3532,14 +3810,14 @@
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
@@ -3548,7 +3826,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3567,7 +3845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3589,29 +3867,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -3619,90 +3897,90 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>30</v>
       </c>
@@ -3726,14 +4004,14 @@
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
@@ -3742,7 +4020,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3761,7 +4039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3783,29 +4061,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -3813,90 +4091,90 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>30</v>
       </c>
@@ -3920,14 +4198,14 @@
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
@@ -3936,7 +4214,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3955,7 +4233,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E906D2-9696-4B6D-A8C6-B596E5162408}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3977,29 +4322,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -4007,90 +4352,90 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>30</v>
       </c>
@@ -4114,14 +4459,14 @@
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
@@ -4130,7 +4475,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4149,7 +4494,1171 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="5">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="5">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="5">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="5">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="5">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="5">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4172,19 +5681,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="A1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>21</v>
@@ -4192,7 +5701,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
@@ -4200,7 +5709,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
@@ -4212,16 +5721,16 @@
         <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4232,42 +5741,42 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4284,13 +5793,13 @@
         <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4301,42 +5810,42 @@
         <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4347,42 +5856,42 @@
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4393,42 +5902,42 @@
         <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4439,42 +5948,42 @@
         <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4491,13 +6000,13 @@
         <v>23</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4514,13 +6023,13 @@
         <v>23</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4537,13 +6046,13 @@
         <v>23</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4560,13 +6069,13 @@
         <v>23</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4583,13 +6092,13 @@
         <v>23</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4606,13 +6115,13 @@
         <v>23</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4629,13 +6138,13 @@
         <v>23</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4652,13 +6161,13 @@
         <v>23</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4675,13 +6184,13 @@
         <v>23</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4698,13 +6207,13 @@
         <v>23</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4721,13 +6230,13 @@
         <v>23</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4744,13 +6253,13 @@
         <v>23</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4797,1178 +6306,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="5">
-        <v>30</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="C12:D12"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="5">
-        <v>30</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="C12:D12"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="5">
-        <v>30</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="C12:D12"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="5">
-        <v>30</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="C12:D12"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="5">
-        <v>30</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="C12:D12"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="5">
-        <v>30</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="C12:D12"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5983,29 +6330,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -6013,90 +6360,90 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>23</v>
       </c>
@@ -6112,10 +6459,10 @@
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="5">
         <v>23</v>
       </c>
@@ -6131,10 +6478,10 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="19"/>
+      <c r="C15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="5">
         <v>23</v>
       </c>
@@ -6158,14 +6505,14 @@
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
@@ -6174,7 +6521,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6195,7 +6542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6217,29 +6564,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -6247,90 +6594,90 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>23</v>
       </c>
@@ -6346,10 +6693,10 @@
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="5">
         <v>23</v>
       </c>
@@ -6365,10 +6712,10 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="19"/>
+      <c r="C15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="5">
         <v>23</v>
       </c>
@@ -6392,14 +6739,14 @@
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
@@ -6408,7 +6755,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6429,7 +6776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6451,29 +6798,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -6481,98 +6828,98 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>30</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>20</v>
@@ -6588,14 +6935,14 @@
     </row>
     <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
@@ -6604,7 +6951,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6623,7 +6970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6645,29 +6992,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -6675,90 +7022,90 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>23</v>
       </c>
@@ -6774,18 +7121,18 @@
     </row>
     <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="5">
         <v>23</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>20</v>
@@ -6793,10 +7140,10 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="19"/>
+      <c r="C15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="5">
         <v>23</v>
       </c>
@@ -6820,14 +7167,14 @@
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
@@ -6836,7 +7183,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6857,7 +7204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6879,29 +7226,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -6909,90 +7256,90 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>23</v>
       </c>
@@ -7008,10 +7355,10 @@
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="5">
         <v>23</v>
       </c>
@@ -7027,15 +7374,15 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="19"/>
+      <c r="C15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="5">
         <v>23</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>16</v>
@@ -7054,14 +7401,14 @@
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
@@ -7070,7 +7417,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -7091,7 +7438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7113,29 +7460,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -7143,90 +7490,90 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="5">
         <v>23</v>
       </c>
@@ -7242,10 +7589,10 @@
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="5">
         <v>23</v>
       </c>
@@ -7261,10 +7608,10 @@
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="19"/>
+      <c r="C15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="5">
         <v>23</v>
       </c>
@@ -7288,14 +7635,14 @@
     </row>
     <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
@@ -7304,241 +7651,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="C12:D12"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="5">
-        <v>23</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="5">
-        <v>23</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="5">
-        <v>23</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
